--- a/E5/Annexe E5 - Yanis MINGAM.xlsx
+++ b/E5/Annexe E5 - Yanis MINGAM.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaneh\Documents\VSCODE PROJECTS\HTML -CSS - JS\Portfolio\PORTFOLIO-YANIS-MINGAM-BTS-SIO\E4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaneh\Documents\PORTFOLIO-YANIS-MINGAM-BTS-SIO\E5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9878860-5953-4DEB-99C4-341D1D494514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020D3774-0F10-4075-8A98-883129D4584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$19</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -110,15 +110,9 @@
     <t>SESSION 2024</t>
   </si>
   <si>
-    <t>Mise en place ACL</t>
-  </si>
-  <si>
     <t>Mise en place XIVO</t>
   </si>
   <si>
-    <t>Mise en place serveur RADIUS</t>
-  </si>
-  <si>
     <t>Mise en place VLAN</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Mise en place d'un serveur WAMP Moodle local avec module d'auto correction de QCM</t>
   </si>
   <si>
-    <t>Mise en place d'une dizaine de bornes Wi-Fi d'extérieur avec controlleur TP-LINK OMADA</t>
-  </si>
-  <si>
     <t>NOM et prénom : MINGAM Yanis</t>
   </si>
   <si>
@@ -162,6 +153,12 @@
   </si>
   <si>
     <t>Mise en place PfSense</t>
+  </si>
+  <si>
+    <t>Mise en place d'un serveur de déploiement d'images lourdes en PXE FOG PROJECT</t>
+  </si>
+  <si>
+    <t>Migration GLPI 9 vers GLPI 10 (BDD + passage de fusion invetory à GLPI Agent)</t>
   </si>
 </sst>
 </file>
@@ -673,15 +670,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,7 +728,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1048,13 +1045,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ59"/>
+  <dimension ref="A1:AQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
@@ -1064,83 +1061,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
+      <c r="A3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="A5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1163,8 +1160,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1220,16 +1217,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1268,7 +1265,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="17"/>
@@ -1315,7 +1312,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10"/>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="18"/>
@@ -1409,7 +1406,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="17"/>
@@ -1503,13 +1500,13 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14"/>
@@ -1550,14 +1547,14 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="17"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1597,14 +1594,14 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="17"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1642,17 +1639,17 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1691,15 +1688,15 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1736,17 +1733,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11"/>
+      <c r="E19"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1785,15 +1782,15 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="21"/>
+      <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1830,202 +1827,122 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="20"/>
       <c r="E21"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
-      <c r="AK21"/>
-      <c r="AL21"/>
-      <c r="AM21"/>
-      <c r="AN21"/>
-      <c r="AO21"/>
-      <c r="AP21"/>
-      <c r="AQ21"/>
-    </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22" s="43"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
-      <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22"/>
-      <c r="AK22"/>
-      <c r="AL22"/>
-      <c r="AM22"/>
-      <c r="AN22"/>
-      <c r="AO22"/>
-      <c r="AP22"/>
-      <c r="AQ22"/>
-    </row>
-    <row r="24" spans="1:43" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="C25"/>
-      <c r="D25" s="11"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25" s="11"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-    </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="20"/>
-      <c r="F26"/>
-      <c r="G26" s="11"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-    </row>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:43" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23"/>
+      <c r="D23" s="11"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="11"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+    </row>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="20"/>
+      <c r="F24"/>
+      <c r="G24" s="11"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+    </row>
+    <row r="25" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2057,11 +1974,9 @@
     <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
@@ -2070,7 +1985,7 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
   </mergeCells>
@@ -2083,15 +1998,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010069215F03536E2E4E8A5D310A7005A11C" ma:contentTypeVersion="18" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e81df9cd83c555aa312470842638d4bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9ae1c3b-2358-44e3-b744-611676976f7d" xmlns:ns3="3005c40c-1001-4ba5-82d3-a83310342a20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b85785bb3382d2db316bdffb77a0fcd9" ns2:_="" ns3:_="">
     <xsd:import namespace="c9ae1c3b-2358-44e3-b744-611676976f7d"/>
@@ -2346,15 +2252,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE565D2-8050-4656-BB1B-448CA5A496B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6146ACC3-F08F-4EF4-8387-144126BB2367}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2371,4 +2278,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE565D2-8050-4656-BB1B-448CA5A496B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>